--- a/test.xlsx
+++ b/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9972"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4185,8 +4185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DW1" workbookViewId="0">
-      <selection activeCell="EJ11" sqref="EJ11"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" customHeight="1"/>
